--- a/Test_Gare_Processing/Coordonnées.xlsx
+++ b/Test_Gare_Processing/Coordonnées.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c81628a280a157f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\GitHub\Prog_Proj_Grp18\Test_Gare_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{823007DA-7A90-497F-B18A-8CF4A19234BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12C0EB4-BB29-4DE8-BED5-13755B251AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="57480" yWindow="7140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,19 +545,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="49.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="49.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="50" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="2:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>50</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="2:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>100</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="2:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>150</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="2:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>200</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="2:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>250</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="2:15" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
         <v>300</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
